--- a/stock_forecast/data/stock_forecast.xlsx
+++ b/stock_forecast/data/stock_forecast.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,55 +433,60 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>2020-08-25</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>2020-08-22</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>2020-08-21</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>2020-08-20</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>2020-08-19</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>2020-08-18</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>2020-08-15</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>2020-08-14</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>2020-08-13</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>2020-08-12</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>2020-08-11</t>
         </is>
@@ -494,36 +499,39 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="C2" t="n">
         <v>4.55</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>4.03</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>4.11</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>2.04</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>5.87</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>3.01</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>2.35</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.74</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>3.32</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2.25</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>2.04</v>
       </c>
     </row>
@@ -534,36 +542,39 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="C3" t="n">
         <v>8.06</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>8.529999999999999</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>6.42</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>4.96</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>4.13</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>3.71</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>3.45</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>4.64</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>2.88</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>1.42</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>4.41</v>
       </c>
     </row>
@@ -574,36 +585,39 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="C4" t="n">
         <v>4.21</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1.79</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-0.31</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.73</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>1.84</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>3.48</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>2.99</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>3.27</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>2.75</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>2.77</v>
       </c>
     </row>
@@ -620,30 +634,33 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>2.81</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>2.32</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>3.86</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>3.92</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>2.89</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>2.91</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -654,36 +671,39 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="C6" t="n">
         <v>3.17</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>4.48</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>4.61</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.36</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>6.11</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>6.27</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>5.14</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>5.89</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>3.8</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>3.64</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>2.05</v>
       </c>
     </row>
@@ -694,36 +714,39 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C7" t="n">
         <v>3.77</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>-3.07</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-1.68</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-1.67</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>-3.85</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>-2.71</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>2.01</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>-1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>-1.02</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.28</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.99</v>
       </c>
     </row>
@@ -734,36 +757,39 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C8" t="n">
         <v>5.01</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>2.7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>2.35</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>2.12</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.08</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>2.53</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>2.79</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>1.45</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>1.36</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>4.21</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>1.75</v>
       </c>
     </row>
@@ -774,36 +800,39 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C9" t="n">
         <v>2.89</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>-0.41</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1.08</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1.6</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>-0.87</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>1.07</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>-0.48</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>-0.51</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>2.62</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>-0.59</v>
       </c>
     </row>
@@ -814,36 +843,39 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="C10" t="n">
         <v>-1.71</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>-0.46</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-0.73</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>-3.15</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-1.58</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>-3.05</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>-2.62</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>-1.93</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>-2.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>-3.95</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>-1.64</v>
       </c>
     </row>
@@ -854,36 +886,39 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>3.81</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>3.32</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.68</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>2.18</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>2.85</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.97</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.96</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>2.48</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>-0.49</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -894,36 +929,39 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="C12" t="n">
         <v>2.51</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>4.56</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>5.79</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>5.27</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>2.95</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>0.55</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>0.06</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>-0.44</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>1.65</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>-0.9399999999999999</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -934,36 +972,39 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="C13" t="n">
         <v>-2</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>-1.99</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-2.47</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.11</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>2.1</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.24</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>1.12</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.76</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>1.12</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>1.61</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>1.74</v>
       </c>
     </row>
@@ -974,36 +1015,39 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C14" t="n">
         <v>2.91</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>2.77</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>1.71</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.23</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>3.64</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>2.58</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>3.16</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>2.45</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>1.67</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>1.57</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>2.82</v>
       </c>
     </row>
